--- a/doc/IMDB_testing.xlsx
+++ b/doc/IMDB_testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Regisztráció</t>
   </si>
@@ -178,6 +178,32 @@
   </si>
   <si>
     <t>Az új listát létrehoztuk a megadott adatokkal.</t>
+  </si>
+  <si>
+    <t>Lista módosítása</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>A www.imdb.com megnyitása. A tesztadatokban megadott felhasználó létezik és bejelentkezett. A módosítani kívánt lista létezik.</t>
+  </si>
+  <si>
+    <t>Régi lista neve: My list
+Új lista neve: M List
+Új lista leírása: Moncsi's list</t>
+  </si>
+  <si>
+    <t>1.lépés: Nyomjunk rá a felhasználó vezetéknevével (Teszt) fémjelzett gombra.
+2.lépés: A lenyíló menüből válasszuk ki a Your lists feliratú gombot és nyomjuk is meg.
+3.lépés: Kiválasztjuk a My list nevű listát. (Ha több ugyanolyan nevű van, az elsőt írjuk át.)
+4.lépés: Megnyomjuk a három egymás alatti pontot.
+5.lépés: Kiválasztjuk az Edit mezőt a megjelenő listából és megnyomjuk.
+6.lépés: A tesztadatokban megadottaknak megfelelően változtatjuk a lista nevét és leírását az új értékekre.
+7.lépés: Megnyomjuk a Done gombot.</t>
+  </si>
+  <si>
+    <t>A listát módosítottuk a tesztadatokban meghatározott adatokkal.</t>
   </si>
 </sst>
 </file>
@@ -1260,37 +1286,93 @@
       <c r="A68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="1"/>
+      <c r="A69" s="20" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="1"/>
+      <c r="A70" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="1"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="1"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="1"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="1"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="1"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="1"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="1"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="1"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="1"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
@@ -3915,7 +3997,10 @@
       <c r="A953" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="48">
+    <mergeCell ref="H58:H67"/>
+    <mergeCell ref="G70:G79"/>
+    <mergeCell ref="H70:H79"/>
     <mergeCell ref="G14:G23"/>
     <mergeCell ref="H14:H23"/>
     <mergeCell ref="H29:H38"/>
@@ -3923,7 +4008,11 @@
     <mergeCell ref="H44:H53"/>
     <mergeCell ref="G44:G53"/>
     <mergeCell ref="G58:G67"/>
-    <mergeCell ref="H58:H67"/>
+    <mergeCell ref="D70:D79"/>
+    <mergeCell ref="E70:E79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="F70:F79"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="D4:D10"/>
@@ -3956,6 +4045,7 @@
     <mergeCell ref="A58:A67"/>
     <mergeCell ref="F58:F67"/>
     <mergeCell ref="B58:B67"/>
+    <mergeCell ref="A70:A79"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/doc/IMDB_testing.xlsx
+++ b/doc/IMDB_testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>Regisztráció</t>
   </si>
@@ -205,12 +205,119 @@
   <si>
     <t>A listát módosítottuk a tesztadatokban meghatározott adatokkal.</t>
   </si>
+  <si>
+    <t>Lista törlése</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>A www.imdb.com megnyitása. A tesztadatokban megadott felhasználó létezik és bejelentkezett. A törölni kívánt lista létezik.</t>
+  </si>
+  <si>
+    <t>Törölni kívánt lista: My list</t>
+  </si>
+  <si>
+    <t>1.lépés: Nyomjunk rá a felhasználó vezetéknevével (Teszt) fémjelzett gombra.
+2.lépés: A lenyíló menüből válasszuk ki a Your lists feliratú gombot és nyomjuk is meg.
+3.lépés: Kiválasztjuk a My list nevű listát. (Ha több ugyanolyan nevű van, az elsőt fogjuk letörölni.)
+4.lépés: Megnyomjuk a három egymás alatti pontot.
+5.lépés: Kiválasztjuk a Delete this list mezőt a megjelenő listából és megnyomjuk.
+6.lépés: Megjelenik egy felugró ablak, ahol 
+megnyomjuk a Delete gombot.</t>
+  </si>
+  <si>
+    <t>A kiválasztott listát töröltük.</t>
+  </si>
+  <si>
+    <t>Adatok listázása</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A www.imdb.com megnyitása. </t>
+  </si>
+  <si>
+    <t>Filmcím: Star wars</t>
+  </si>
+  <si>
+    <t>1.lépés: A Search IMDb mezőbe beírjuk a tesztadatokban megadott filmcímet, majd nyomunk egy entert.
+2.lépés: A Titles résznél szereplő Exact title matches gombot megnyomjuk.</t>
+  </si>
+  <si>
+    <t>A kiválasztott filmcímmel megegyező című filmek listázása sikeresen megtörtént.</t>
+  </si>
+  <si>
+    <t>Több oldalas lista bejárása</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filmcím: Star wars </t>
+  </si>
+  <si>
+    <t>1.lépés: A Search IMDb mezőbe beírjuk a tesztadatokban megadott filmcímet, majd nyomunk egy entert.
+2.lépés: A Titles résznél szereplő Exact title matches gombot megnyomjuk.
+3.lépés: A listában szereplő legelső film címére rányomunk.
+4.lépés: Megnyitjuk az X+ photos gombbal a filmről szereplő képeket.
+5.lépés:A Next gomb folyamatos megnyomásával lapozzuk végig a képek listáját.</t>
+  </si>
+  <si>
+    <t>A kiválasztott filmnél lévő képek megjelenítése és lapozása sikeres.</t>
+  </si>
+  <si>
+    <t>Ismételt és sorozatos adatbevitel adatforrásból</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Felhasználónév: Teszt Elek
+Email cím: tesztelek1231234@gmail.com
+Jelszó: tesztelek12
+Jelszó újra: tesztelek12 Tesztfájl elérése: src/test/resources/teszt.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.lépés:Nyomjuk meg a Watchlist gombot.
+2.lépés: Ha nem üres a Watchlistünk, töröljük le azt. (Edit gomb, Film melletti jelölőnégyzet bepipálása, Delete gomb megnyomása, majd a felugró ablakban is a Delete gomb megnyomása.)
+3.lépés: Nyissuk meg a tesztadatokban szereplő txt fájlt az adatok feltöltésére.
+4.lépés: A txt fájlban szereplő filmcímeket adjuk meg egyesével (+enter)  az Add a movie or TV show to this list mezőben. 
+5.lépés: A txt fájl elemeinek a Watchlistbe ilyen módon történő felvitele után nyomjuk meg a Done gombot.
+6.lépés: Zárjuk be a txt fájlt. </t>
+  </si>
+  <si>
+    <t>Az adatbevitel a megadott adatforrásból sikeresen megtörtént.</t>
+  </si>
+  <si>
+    <t>Adatok exportálása</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felhasználónév: Teszt Elek
+Email cím: tesztelek1231234@gmail.com
+Jelszó: tesztelek12
+Jelszó újra: tesztelek12 Exportált fájl elérése: src/test/resources/WATCHLIST.csv Keresendő filmcím évvel: Spun (2002)  </t>
+  </si>
+  <si>
+    <t>1.lépés:Nyomjuk meg a Watchlist gombot.
+2.lépés: Ha nem üres a Watchlist-ünk, nyomjuk meg az Export this list gombot.
+(Ezzel a tesztadatokban megadott mappába a megadott fájlnévvel létre kell jönnie a kiexportált Watchlist-nek.)
+3.lépés: Ha üres a Watchlist-ünk, adjuk meg a tesztadatokban szereplő filmcímet évvel az Add a movie or TV show to this list mezőben, majd nyomjunk egy entert.
+4.lépés: Hajtsuk végre a 2.lépést, mivel itt már nem üres a Watchlist.</t>
+  </si>
+  <si>
+    <t>Az adatok exportálása megfelelően működik.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -227,11 +334,6 @@
     <font>
       <sz val="14.0"/>
       <color rgb="FF9900FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -371,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -392,23 +494,23 @@
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -419,20 +521,17 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -931,25 +1030,25 @@
       <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1055,25 +1154,25 @@
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1176,25 +1275,25 @@
       <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1378,181 +1477,461 @@
       <c r="A80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="1"/>
+      <c r="A81" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="1"/>
+      <c r="A82" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="1"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="1"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="1"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="1"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="1"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="1"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="1"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="1"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="1"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="1"/>
+      <c r="A93" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="1"/>
+      <c r="A94" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="1"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="1"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="1"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="1"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="1"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="1"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="1"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="1"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="1"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="1"/>
+      <c r="A105" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="1"/>
+      <c r="A106" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="1"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="1"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="1"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="1"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="1"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="1"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="1"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="1"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="1"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="1"/>
+      <c r="A117" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="1"/>
+      <c r="A118" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="1"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="1"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="1"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="1"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="1"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="1"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="1"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="1"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="1"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="1"/>
+      <c r="A129" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="1"/>
+      <c r="A130" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G130" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="1"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="1"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="1"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="1"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="1"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="1"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="1"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="1"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="1"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
@@ -3997,29 +4376,70 @@
       <c r="A953" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="88">
+    <mergeCell ref="B58:B67"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="E58:E67"/>
+    <mergeCell ref="F58:F67"/>
+    <mergeCell ref="G58:G67"/>
     <mergeCell ref="H58:H67"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="D70:D79"/>
+    <mergeCell ref="E70:E79"/>
+    <mergeCell ref="F70:F79"/>
     <mergeCell ref="G70:G79"/>
     <mergeCell ref="H70:H79"/>
-    <mergeCell ref="G14:G23"/>
-    <mergeCell ref="H14:H23"/>
-    <mergeCell ref="H29:H38"/>
-    <mergeCell ref="G29:G38"/>
-    <mergeCell ref="H44:H53"/>
-    <mergeCell ref="G44:G53"/>
-    <mergeCell ref="G58:G67"/>
-    <mergeCell ref="D70:D79"/>
-    <mergeCell ref="E70:E79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="F70:F79"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="C82:C91"/>
+    <mergeCell ref="D82:D91"/>
+    <mergeCell ref="E82:E91"/>
+    <mergeCell ref="H82:H91"/>
+    <mergeCell ref="B94:B103"/>
+    <mergeCell ref="C94:C103"/>
+    <mergeCell ref="D94:D103"/>
+    <mergeCell ref="E94:E103"/>
+    <mergeCell ref="C106:C115"/>
+    <mergeCell ref="D106:D115"/>
+    <mergeCell ref="E106:E115"/>
+    <mergeCell ref="F106:F115"/>
+    <mergeCell ref="F118:F127"/>
+    <mergeCell ref="G118:G127"/>
+    <mergeCell ref="H118:H127"/>
+    <mergeCell ref="E118:E127"/>
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="G82:G91"/>
+    <mergeCell ref="F94:F103"/>
+    <mergeCell ref="G94:G103"/>
+    <mergeCell ref="H94:H103"/>
+    <mergeCell ref="G106:G115"/>
+    <mergeCell ref="H106:H115"/>
+    <mergeCell ref="B130:B139"/>
+    <mergeCell ref="C130:C139"/>
+    <mergeCell ref="F130:F139"/>
+    <mergeCell ref="H130:H139"/>
+    <mergeCell ref="E130:E139"/>
+    <mergeCell ref="G130:G139"/>
+    <mergeCell ref="B106:B115"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B118:B127"/>
+    <mergeCell ref="A118:A127"/>
+    <mergeCell ref="C118:C127"/>
+    <mergeCell ref="D118:D127"/>
+    <mergeCell ref="A130:A139"/>
+    <mergeCell ref="D130:D139"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="D4:D10"/>
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="F4:F10"/>
+    <mergeCell ref="G4:G10"/>
     <mergeCell ref="H4:H10"/>
-    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="H14:H23"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
@@ -4027,25 +4447,24 @@
     <mergeCell ref="D14:D23"/>
     <mergeCell ref="E14:E23"/>
     <mergeCell ref="F14:F23"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="A29:A38"/>
     <mergeCell ref="B29:B38"/>
     <mergeCell ref="C29:C38"/>
     <mergeCell ref="D29:D38"/>
     <mergeCell ref="E29:E38"/>
     <mergeCell ref="F29:F38"/>
+    <mergeCell ref="G29:G38"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="G44:G53"/>
+    <mergeCell ref="H44:H53"/>
+    <mergeCell ref="A29:A38"/>
     <mergeCell ref="A44:A53"/>
-    <mergeCell ref="F44:F53"/>
     <mergeCell ref="B44:B53"/>
     <mergeCell ref="C44:C53"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="D58:D67"/>
-    <mergeCell ref="E58:E67"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="F58:F67"/>
-    <mergeCell ref="B58:B67"/>
-    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="A94:A103"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/doc/IMDB_testing.xlsx
+++ b/doc/IMDB_testing.xlsx
@@ -171,10 +171,10 @@
 2.lépés: A lenyíló menüből válasszuk ki a Your lists feliratú gombot és nyomjuk is meg.
 3.lépés: Nyomjuk meg a Create a new list feliratú gombot.
 4.lépés: Adjuk meg  a List Title mezőben a lista nevét.
-4.lépés: Adjuk meg  a List Description mezőben a lista leírását.
-5.lépés: Válasszuk ki a Type of List mezőben a lista típusát.
-6.lépés: A Public List jelölőnégyzetet a tesztadatokban megadottaknak megfelelően kattintsuk ki/be.
-7.lépés: Nyomjuk meg a Create gombot.</t>
+5.lépés: Adjuk meg  a List Description mezőben a lista leírását.
+6.lépés: Válasszuk ki a Type of List mezőben a lista típusát.
+7.lépés: A Public List jelölőnégyzetet a tesztadatokban megadottaknak megfelelően kattintsuk ki/be.
+8.lépés: Nyomjuk meg a Create gombot.</t>
   </si>
   <si>
     <t>Az új listát létrehoztuk a megadott adatokkal.</t>
@@ -317,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -347,14 +347,9 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
     <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
@@ -385,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -412,48 +407,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -473,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -494,23 +447,11 @@
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -524,14 +465,12 @@
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -817,73 +756,103 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" ht="67.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="39.0" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1"/>
@@ -929,88 +898,120 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
@@ -1022,7 +1023,7 @@
       <c r="A26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1053,88 +1054,120 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
@@ -1146,7 +1179,7 @@
       <c r="A41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1177,88 +1210,120 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
@@ -1267,7 +1332,7 @@
       <c r="A55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1298,640 +1363,864 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" ht="84.75" customHeight="1">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H70" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" ht="60.0" customHeight="1">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G82" s="23" t="s">
+      <c r="G82" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="H82" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" ht="34.5" customHeight="1">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G94" s="23" t="s">
+      <c r="G94" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H94" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="F106" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G106" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H106" s="23" t="s">
+      <c r="H106" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="10" t="s">
+      <c r="F118" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G118" s="23" t="s">
+      <c r="G118" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H118" s="23" t="s">
+      <c r="H118" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="127" ht="67.5" customHeight="1">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F130" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G130" s="23" t="s">
+      <c r="G130" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H130" s="23" t="s">
+      <c r="H130" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="24"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="139" ht="78.0" customHeight="1">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
@@ -4391,6 +4680,8 @@
     <mergeCell ref="D70:D79"/>
     <mergeCell ref="E70:E79"/>
     <mergeCell ref="F70:F79"/>
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="G82:G91"/>
     <mergeCell ref="G70:G79"/>
     <mergeCell ref="H70:H79"/>
     <mergeCell ref="B82:B91"/>
@@ -4398,39 +4689,29 @@
     <mergeCell ref="D82:D91"/>
     <mergeCell ref="E82:E91"/>
     <mergeCell ref="H82:H91"/>
+    <mergeCell ref="G94:G103"/>
+    <mergeCell ref="H94:H103"/>
+    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="A94:A103"/>
     <mergeCell ref="B94:B103"/>
     <mergeCell ref="C94:C103"/>
     <mergeCell ref="D94:D103"/>
     <mergeCell ref="E94:E103"/>
+    <mergeCell ref="F94:F103"/>
+    <mergeCell ref="B106:B115"/>
     <mergeCell ref="C106:C115"/>
     <mergeCell ref="D106:D115"/>
     <mergeCell ref="E106:E115"/>
     <mergeCell ref="F106:F115"/>
-    <mergeCell ref="F118:F127"/>
-    <mergeCell ref="G118:G127"/>
-    <mergeCell ref="H118:H127"/>
-    <mergeCell ref="E118:E127"/>
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="G82:G91"/>
-    <mergeCell ref="F94:F103"/>
-    <mergeCell ref="G94:G103"/>
-    <mergeCell ref="H94:H103"/>
     <mergeCell ref="G106:G115"/>
     <mergeCell ref="H106:H115"/>
-    <mergeCell ref="B130:B139"/>
-    <mergeCell ref="C130:C139"/>
-    <mergeCell ref="F130:F139"/>
-    <mergeCell ref="H130:H139"/>
-    <mergeCell ref="E130:E139"/>
-    <mergeCell ref="G130:G139"/>
-    <mergeCell ref="B106:B115"/>
     <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A118:A127"/>
     <mergeCell ref="B118:B127"/>
-    <mergeCell ref="A118:A127"/>
     <mergeCell ref="C118:C127"/>
     <mergeCell ref="D118:D127"/>
-    <mergeCell ref="A130:A139"/>
-    <mergeCell ref="D130:D139"/>
+    <mergeCell ref="E118:E127"/>
+    <mergeCell ref="F118:F127"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="D4:D10"/>
@@ -4463,8 +4744,16 @@
     <mergeCell ref="D44:D53"/>
     <mergeCell ref="E44:E53"/>
     <mergeCell ref="F44:F53"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="A94:A103"/>
+    <mergeCell ref="F130:F139"/>
+    <mergeCell ref="G130:G139"/>
+    <mergeCell ref="G118:G127"/>
+    <mergeCell ref="H118:H127"/>
+    <mergeCell ref="A130:A139"/>
+    <mergeCell ref="B130:B139"/>
+    <mergeCell ref="C130:C139"/>
+    <mergeCell ref="D130:D139"/>
+    <mergeCell ref="E130:E139"/>
+    <mergeCell ref="H130:H139"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/doc/IMDB_testing.xlsx
+++ b/doc/IMDB_testing.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj/ZSPEDIvNROprnN4U8Z0Nic+RSQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg4s5wVn9TdUfyN1FZ4cz8nHOJGKw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>Regisztráció</t>
   </si>
@@ -317,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -353,6 +353,11 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -380,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -422,11 +427,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -470,6 +489,18 @@
     </xf>
     <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +746,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" ht="36.0" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -857,7 +888,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" ht="30.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" ht="31.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" ht="33.0" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
@@ -1336,7 +1367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" ht="30.0" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
@@ -1486,41 +1517,65 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="15" t="s">
+    <row r="70" ht="39.75" customHeight="1">
+      <c r="A70" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F71" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G71" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H70" s="17" t="s">
+      <c r="H71" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="9"/>
@@ -1592,69 +1647,85 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" ht="60.0" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="1"/>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" ht="60.0" customHeight="1">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="15" t="s">
+    <row r="83" ht="38.25" customHeight="1">
+      <c r="A83" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B84" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E84" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G82" s="17" t="s">
+      <c r="G84" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H84" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="9"/>
@@ -1716,79 +1787,95 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" ht="34.5" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="14" t="s">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" ht="34.5" customHeight="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="15" t="s">
+    <row r="96" ht="37.5" customHeight="1">
+      <c r="A96" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B97" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F97" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G97" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H94" s="17" t="s">
+      <c r="H97" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="9"/>
@@ -1841,88 +1928,112 @@
       <c r="H102" s="9"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="1"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="15" t="s">
+    <row r="109" ht="37.5" customHeight="1">
+      <c r="A109" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="21"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B110" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F110" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G110" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H106" s="17" t="s">
+      <c r="H110" s="17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="9"/>
@@ -1965,98 +2076,114 @@
       <c r="H114" s="9"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="1"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="15" t="s">
+    <row r="122" ht="39.0" customHeight="1">
+      <c r="A122" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B123" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D123" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F123" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G123" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H118" s="17" t="s">
+      <c r="H123" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="9"/>
@@ -2088,49 +2215,45 @@
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
     </row>
-    <row r="127" ht="67.5" customHeight="1">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="1"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G130" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H130" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="9"/>
@@ -2142,45 +2265,49 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
+    <row r="132" ht="67.5" customHeight="1">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
+      <c r="A134" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
+      <c r="A135" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="9"/>
@@ -2212,30 +2339,65 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
     </row>
-    <row r="139" ht="78.0" customHeight="1">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="1"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="1"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="1"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="1"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+    </row>
+    <row r="144" ht="78.0" customHeight="1">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
@@ -4663,6 +4825,21 @@
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="A953" s="1"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="A954" s="1"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="A955" s="1"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="A956" s="1"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="A957" s="1"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="A958" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -4674,44 +4851,44 @@
     <mergeCell ref="G58:G67"/>
     <mergeCell ref="H58:H67"/>
     <mergeCell ref="A58:A67"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="D70:D79"/>
-    <mergeCell ref="E70:E79"/>
-    <mergeCell ref="F70:F79"/>
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="G82:G91"/>
-    <mergeCell ref="G70:G79"/>
-    <mergeCell ref="H70:H79"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="C82:C91"/>
-    <mergeCell ref="D82:D91"/>
-    <mergeCell ref="E82:E91"/>
-    <mergeCell ref="H82:H91"/>
-    <mergeCell ref="G94:G103"/>
-    <mergeCell ref="H94:H103"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="A94:A103"/>
-    <mergeCell ref="B94:B103"/>
-    <mergeCell ref="C94:C103"/>
-    <mergeCell ref="D94:D103"/>
-    <mergeCell ref="E94:E103"/>
-    <mergeCell ref="F94:F103"/>
-    <mergeCell ref="B106:B115"/>
-    <mergeCell ref="C106:C115"/>
-    <mergeCell ref="D106:D115"/>
-    <mergeCell ref="E106:E115"/>
-    <mergeCell ref="F106:F115"/>
-    <mergeCell ref="G106:G115"/>
-    <mergeCell ref="H106:H115"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A118:A127"/>
-    <mergeCell ref="B118:B127"/>
-    <mergeCell ref="C118:C127"/>
-    <mergeCell ref="D118:D127"/>
-    <mergeCell ref="E118:E127"/>
-    <mergeCell ref="F118:F127"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="E71:E80"/>
+    <mergeCell ref="F71:F80"/>
+    <mergeCell ref="F84:F93"/>
+    <mergeCell ref="G84:G93"/>
+    <mergeCell ref="G71:G80"/>
+    <mergeCell ref="H71:H80"/>
+    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="C84:C93"/>
+    <mergeCell ref="D84:D93"/>
+    <mergeCell ref="E84:E93"/>
+    <mergeCell ref="H84:H93"/>
+    <mergeCell ref="G97:G106"/>
+    <mergeCell ref="H97:H106"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="B97:B106"/>
+    <mergeCell ref="C97:C106"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="E97:E106"/>
+    <mergeCell ref="F97:F106"/>
+    <mergeCell ref="B110:B119"/>
+    <mergeCell ref="C110:C119"/>
+    <mergeCell ref="D110:D119"/>
+    <mergeCell ref="E110:E119"/>
+    <mergeCell ref="F110:F119"/>
+    <mergeCell ref="G110:G119"/>
+    <mergeCell ref="H110:H119"/>
+    <mergeCell ref="A110:A119"/>
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="B123:B132"/>
+    <mergeCell ref="C123:C132"/>
+    <mergeCell ref="D123:D132"/>
+    <mergeCell ref="E123:E132"/>
+    <mergeCell ref="F123:F132"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="D4:D10"/>
@@ -4744,16 +4921,16 @@
     <mergeCell ref="D44:D53"/>
     <mergeCell ref="E44:E53"/>
     <mergeCell ref="F44:F53"/>
-    <mergeCell ref="F130:F139"/>
-    <mergeCell ref="G130:G139"/>
-    <mergeCell ref="G118:G127"/>
-    <mergeCell ref="H118:H127"/>
-    <mergeCell ref="A130:A139"/>
-    <mergeCell ref="B130:B139"/>
-    <mergeCell ref="C130:C139"/>
-    <mergeCell ref="D130:D139"/>
-    <mergeCell ref="E130:E139"/>
-    <mergeCell ref="H130:H139"/>
+    <mergeCell ref="F135:F144"/>
+    <mergeCell ref="G135:G144"/>
+    <mergeCell ref="G123:G132"/>
+    <mergeCell ref="H123:H132"/>
+    <mergeCell ref="A135:A144"/>
+    <mergeCell ref="B135:B144"/>
+    <mergeCell ref="C135:C144"/>
+    <mergeCell ref="D135:D144"/>
+    <mergeCell ref="E135:E144"/>
+    <mergeCell ref="H135:H144"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/doc/IMDB_testing.xlsx
+++ b/doc/IMDB_testing.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg4s5wVn9TdUfyN1FZ4cz8nHOJGKw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjarYVWproA2whwHDyQJgPmKrK/bQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
   <si>
     <t>Regisztráció</t>
   </si>
@@ -2283,41 +2283,57 @@
         <v>71</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="15" t="s">
+    <row r="135" ht="35.25" customHeight="1">
+      <c r="A135" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B136" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C136" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F136" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G135" s="17" t="s">
+      <c r="G136" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H135" s="17" t="s">
+      <c r="H136" s="17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="9"/>
@@ -2389,18 +2405,25 @@
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
     </row>
-    <row r="144" ht="78.0" customHeight="1">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="1"/>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+    </row>
+    <row r="145" ht="78.0" customHeight="1">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
@@ -4840,6 +4863,9 @@
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="A958" s="1"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="A959" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -4921,16 +4947,16 @@
     <mergeCell ref="D44:D53"/>
     <mergeCell ref="E44:E53"/>
     <mergeCell ref="F44:F53"/>
-    <mergeCell ref="F135:F144"/>
-    <mergeCell ref="G135:G144"/>
+    <mergeCell ref="F136:F145"/>
+    <mergeCell ref="G136:G145"/>
     <mergeCell ref="G123:G132"/>
     <mergeCell ref="H123:H132"/>
-    <mergeCell ref="A135:A144"/>
-    <mergeCell ref="B135:B144"/>
-    <mergeCell ref="C135:C144"/>
-    <mergeCell ref="D135:D144"/>
-    <mergeCell ref="E135:E144"/>
-    <mergeCell ref="H135:H144"/>
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="B136:B145"/>
+    <mergeCell ref="C136:C145"/>
+    <mergeCell ref="D136:D145"/>
+    <mergeCell ref="E136:E145"/>
+    <mergeCell ref="H136:H145"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
